--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\weather-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC093291-04A6-43B2-851A-9182470B57E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062BB7C-C064-4C63-9DC6-1B8DA76C956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17388" yWindow="-10476" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-9984" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -51,7 +46,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>30.11.2022</t>
+    <t>30.11.2023</t>
   </si>
 </sst>
 </file>
@@ -396,7 +391,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +439,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>